--- a/ref/index_size.xlsx
+++ b/ref/index_size.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RXIE\Learning\Solr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{0CC72FDB-8456-44E7-91CE-06CB41D7FE94}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D862C22E-2087-4FBD-B472-7B98A64F0649}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22515" windowHeight="7320" xr2:uid="{1D37BE54-DB00-4EA9-8F8A-8A91206A1CFF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22515" windowHeight="7320" activeTab="2" xr2:uid="{1D37BE54-DB00-4EA9-8F8A-8A91206A1CFF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="no message" sheetId="1" r:id="rId1"/>
+    <sheet name="with message" sheetId="3" r:id="rId2"/>
+    <sheet name="index_size vs. file indexed" sheetId="4" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'index_size vs. file indexed'!$D$2:$D$5</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,9 +30,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>5M</t>
+    <t>File #</t>
+  </si>
+  <si>
+    <t>File Size (KB)</t>
+  </si>
+  <si>
+    <t>Time (seconds)</t>
+  </si>
+  <si>
+    <t>Index Size(KB)</t>
   </si>
 </sst>
 </file>
@@ -64,8 +77,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -188,7 +202,7 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$1:$D$1</c:f>
+              <c:f>'no message'!$A$1:$D$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -446,7 +460,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$1:$E$1</c:f>
+              <c:f>'no message'!$A$1:$E$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -503,7 +517,7 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$1:$D$1</c:f>
+              <c:f>'no message'!$A$1:$D$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -782,7 +796,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$1:$F$1</c:f>
+              <c:f>'no message'!$A$1:$F$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -828,7 +842,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$1:$D$1</c:f>
+              <c:f>'no message'!$A$1:$D$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -882,7 +896,7 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$1:$E$1</c:f>
+              <c:f>'no message'!$A$1:$E$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1053,7 +1067,672 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Index Size vs File Indexed</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>IndexSize</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'index_size vs. file indexed'!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1289.117</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,##0">
+                  <c:v>2576.6370000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'index_size vs. file indexed'!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1289.117</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,##0">
+                  <c:v>2576.6370000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-80E9-4402-BD3D-1B1599C1BD9E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="334901840"/>
+        <c:axId val="330104352"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>File#</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'index_size vs. file indexed'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3840</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7680</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'index_size vs. file indexed'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3840</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7680</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-80E9-4402-BD3D-1B1599C1BD9E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="334901840"/>
+        <c:axId val="330104352"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="334901840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="330104352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="330104352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="334901840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1596,6 +2275,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1701,6 +2896,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>52386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1E8C357-13F7-4C05-878B-E865C2200411}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2008,8 +3244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA02A0EF-F4D7-408E-A221-1252052F3D07}">
   <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3304,100 +4540,1613 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31AFC3B8-E6D9-45E8-B493-4E5689EA0E0E}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66CAC14B-8E44-4047-B7CE-268E5641D7C9}">
+  <dimension ref="A1:F122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C6"/>
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <f>SUM(A2:A14)</f>
+        <v>6526</v>
+      </c>
+      <c r="B1">
+        <f>SUM(B2:B26)</f>
+        <v>19581</v>
+      </c>
+      <c r="C1">
+        <f>SUM(C2:C62)</f>
+        <v>235054</v>
+      </c>
+      <c r="D1">
+        <f>SUM(D2:D122)</f>
+        <v>640397</v>
+      </c>
+      <c r="E1">
+        <f>SUM(E2:E98)</f>
+        <v>1289117</v>
+      </c>
+      <c r="F1">
+        <f>SUM(F2:F87)</f>
+        <v>2576637</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>637</v>
+      </c>
+      <c r="B2">
+        <v>637</v>
+      </c>
+      <c r="C2">
+        <v>637</v>
+      </c>
+      <c r="D2">
+        <v>637</v>
+      </c>
+      <c r="E2">
+        <v>204441</v>
+      </c>
+      <c r="F2">
+        <v>11535</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>84</v>
+      </c>
+      <c r="B3">
+        <v>84</v>
+      </c>
+      <c r="C3">
+        <v>84</v>
+      </c>
+      <c r="D3">
+        <v>84</v>
+      </c>
+      <c r="E3">
+        <v>218</v>
+      </c>
+      <c r="F3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1279</v>
+      </c>
+      <c r="B4">
+        <v>1279</v>
+      </c>
+      <c r="C4">
+        <v>1279</v>
+      </c>
+      <c r="D4">
+        <v>1279</v>
+      </c>
+      <c r="E4">
+        <v>1644</v>
+      </c>
+      <c r="F4">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>110</v>
+      </c>
+      <c r="B5">
+        <v>110</v>
+      </c>
+      <c r="C5">
+        <v>110</v>
+      </c>
+      <c r="D5">
+        <v>110</v>
+      </c>
+      <c r="E5">
+        <v>26145</v>
+      </c>
+      <c r="F5">
+        <v>4128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>169</v>
+      </c>
+      <c r="B6">
+        <v>169</v>
+      </c>
+      <c r="C6">
+        <v>169</v>
+      </c>
+      <c r="D6">
+        <v>169</v>
+      </c>
+      <c r="E6">
+        <v>44280</v>
+      </c>
+      <c r="F6">
+        <v>4306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1399</v>
+      </c>
+      <c r="B7">
+        <v>1399</v>
+      </c>
+      <c r="C7">
+        <v>1399</v>
+      </c>
+      <c r="D7">
+        <v>1399</v>
+      </c>
+      <c r="E7">
+        <v>118791</v>
+      </c>
+      <c r="F7">
+        <v>8230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>217</v>
+      </c>
+      <c r="B8">
+        <v>217</v>
+      </c>
+      <c r="C8">
+        <v>217</v>
+      </c>
+      <c r="D8">
+        <v>217</v>
+      </c>
+      <c r="E8">
+        <v>629</v>
+      </c>
+      <c r="F8">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>459</v>
+      </c>
+      <c r="B9">
+        <v>459</v>
+      </c>
+      <c r="C9">
+        <v>459</v>
+      </c>
+      <c r="D9">
+        <v>459</v>
+      </c>
+      <c r="E9">
+        <v>121125</v>
+      </c>
+      <c r="F9">
+        <v>7142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1142</v>
+      </c>
+      <c r="B10">
+        <v>1142</v>
+      </c>
+      <c r="C10">
+        <v>1142</v>
+      </c>
+      <c r="D10">
+        <v>1142</v>
+      </c>
+      <c r="E10">
+        <v>1143</v>
+      </c>
+      <c r="F10">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>59</v>
+      </c>
+      <c r="B11">
+        <v>59</v>
+      </c>
+      <c r="C11">
+        <v>59</v>
+      </c>
+      <c r="D11">
+        <v>59</v>
+      </c>
+      <c r="E11">
+        <v>59</v>
+      </c>
+      <c r="F11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>232</v>
+      </c>
+      <c r="B12">
+        <v>232</v>
+      </c>
+      <c r="C12">
+        <v>232</v>
+      </c>
+      <c r="D12">
+        <v>232</v>
+      </c>
+      <c r="E12">
+        <v>232</v>
+      </c>
+      <c r="F12">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>540</v>
+      </c>
+      <c r="B13">
+        <v>540</v>
+      </c>
+      <c r="C13">
+        <v>540</v>
+      </c>
+      <c r="D13">
+        <v>540</v>
+      </c>
+      <c r="E13">
+        <v>578</v>
+      </c>
+      <c r="F13">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>199</v>
+      </c>
+      <c r="B14">
+        <v>1535</v>
+      </c>
+      <c r="C14">
+        <v>1535</v>
+      </c>
+      <c r="D14">
+        <v>1535</v>
+      </c>
+      <c r="E14">
+        <v>87523</v>
+      </c>
+      <c r="F14">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>84</v>
+      </c>
+      <c r="C15">
+        <v>84</v>
+      </c>
+      <c r="D15">
+        <v>84</v>
+      </c>
+      <c r="E15">
+        <v>142</v>
+      </c>
+      <c r="F15">
+        <v>4111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>1279</v>
+      </c>
+      <c r="C16">
+        <v>1279</v>
+      </c>
+      <c r="D16">
+        <v>1279</v>
+      </c>
+      <c r="E16">
+        <v>1279</v>
+      </c>
+      <c r="F16">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>1650</v>
+      </c>
+      <c r="C17">
+        <v>1650</v>
+      </c>
+      <c r="D17">
+        <v>1650</v>
+      </c>
+      <c r="E17">
+        <v>15352</v>
+      </c>
+      <c r="F17">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>1870</v>
+      </c>
+      <c r="C18">
+        <v>1870</v>
+      </c>
+      <c r="D18">
+        <v>1870</v>
+      </c>
+      <c r="E18">
+        <v>23294</v>
+      </c>
+      <c r="F18">
+        <v>4240</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>2496</v>
+      </c>
+      <c r="C19">
+        <v>2496</v>
+      </c>
+      <c r="D19">
+        <v>2496</v>
+      </c>
+      <c r="E19">
+        <v>51673</v>
+      </c>
+      <c r="F19">
+        <v>4671</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>217</v>
+      </c>
+      <c r="C20">
+        <v>217</v>
+      </c>
+      <c r="D20">
+        <v>217</v>
+      </c>
+      <c r="E20">
+        <v>437</v>
+      </c>
+      <c r="F20">
+        <v>3781</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>1730</v>
+      </c>
+      <c r="C21">
+        <v>1730</v>
+      </c>
+      <c r="D21">
+        <v>1730</v>
+      </c>
+      <c r="E21">
+        <v>51153</v>
+      </c>
+      <c r="F21">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>1302</v>
+      </c>
+      <c r="C22">
+        <v>1302</v>
+      </c>
+      <c r="D22">
+        <v>1302</v>
+      </c>
+      <c r="E22">
+        <v>1143</v>
+      </c>
+      <c r="F22">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>59</v>
+      </c>
+      <c r="C23">
+        <v>59</v>
+      </c>
+      <c r="D23">
+        <v>59</v>
+      </c>
+      <c r="E23">
+        <v>59</v>
+      </c>
+      <c r="F23">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>232</v>
+      </c>
+      <c r="C24">
+        <v>232</v>
+      </c>
+      <c r="D24">
+        <v>232</v>
+      </c>
+      <c r="E24">
+        <v>232</v>
+      </c>
+      <c r="F24">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>540</v>
+      </c>
+      <c r="C25">
+        <v>540</v>
+      </c>
+      <c r="D25">
+        <v>540</v>
+      </c>
+      <c r="E25">
+        <v>540</v>
+      </c>
+      <c r="F25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>260</v>
+      </c>
+      <c r="C26">
+        <v>32506</v>
+      </c>
+      <c r="D26">
+        <v>32506</v>
+      </c>
+      <c r="E26">
+        <v>7626</v>
+      </c>
+      <c r="F26">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>103</v>
+      </c>
+      <c r="D27">
+        <v>103</v>
+      </c>
+      <c r="E27">
+        <v>87</v>
+      </c>
+      <c r="F27">
+        <v>888169</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>1279</v>
+      </c>
+      <c r="D28">
+        <v>1279</v>
+      </c>
+      <c r="E28">
+        <v>1279</v>
+      </c>
+      <c r="F28">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>9397</v>
+      </c>
+      <c r="D29">
+        <v>9397</v>
+      </c>
+      <c r="E29">
+        <v>8377</v>
+      </c>
+      <c r="F29">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>11794</v>
+      </c>
+      <c r="D30">
+        <v>11794</v>
+      </c>
+      <c r="E30">
+        <v>9123</v>
+      </c>
+      <c r="F30">
+        <v>90557</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>20446</v>
+      </c>
+      <c r="D31">
+        <v>20446</v>
+      </c>
+      <c r="E31">
+        <v>5966</v>
+      </c>
+      <c r="F31">
+        <v>171019</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>300</v>
+      </c>
+      <c r="D32">
+        <v>300</v>
+      </c>
+      <c r="E32">
+        <v>232</v>
+      </c>
+      <c r="F32">
+        <v>497978</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>19756</v>
+      </c>
+      <c r="D33">
+        <v>19756</v>
+      </c>
+      <c r="E33">
+        <v>5157</v>
+      </c>
+      <c r="F33">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>1143</v>
+      </c>
+      <c r="D34">
+        <v>1143</v>
+      </c>
+      <c r="E34">
+        <v>1990</v>
+      </c>
+      <c r="F34">
+        <v>523071</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>59</v>
+      </c>
+      <c r="D35">
+        <v>59</v>
+      </c>
+      <c r="E35">
+        <v>59</v>
+      </c>
+      <c r="F35">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>232</v>
+      </c>
+      <c r="D36">
+        <v>232</v>
+      </c>
+      <c r="E36">
+        <v>232</v>
+      </c>
+      <c r="F36">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>540</v>
+      </c>
+      <c r="D37">
+        <v>540</v>
+      </c>
+      <c r="E37">
+        <v>540</v>
+      </c>
+      <c r="F37">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>2238</v>
+      </c>
+      <c r="D38">
+        <v>2238</v>
+      </c>
+      <c r="E38">
+        <v>36660</v>
+      </c>
+      <c r="F38">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>85</v>
+      </c>
+      <c r="D39">
+        <v>85</v>
+      </c>
+      <c r="E39">
+        <v>108</v>
+      </c>
+      <c r="F39">
+        <v>50820</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>1279</v>
+      </c>
+      <c r="D40">
+        <v>1279</v>
+      </c>
+      <c r="E40">
+        <v>1279</v>
+      </c>
+      <c r="F40">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>1973</v>
+      </c>
+      <c r="D41">
+        <v>1973</v>
+      </c>
+      <c r="E41">
+        <v>4657</v>
+      </c>
+      <c r="F41">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>2144</v>
+      </c>
+      <c r="D42">
+        <v>2144</v>
+      </c>
+      <c r="E42">
+        <v>7621</v>
+      </c>
+      <c r="F42">
+        <v>11237</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>2567</v>
+      </c>
+      <c r="D43">
+        <v>2567</v>
+      </c>
+      <c r="E43">
+        <v>22641</v>
+      </c>
+      <c r="F43">
+        <v>15658</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>217</v>
+      </c>
+      <c r="D44">
+        <v>217</v>
+      </c>
+      <c r="E44">
+        <v>315</v>
+      </c>
+      <c r="F44">
+        <v>30792</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>1767</v>
+      </c>
+      <c r="D45">
+        <v>1767</v>
+      </c>
+      <c r="E45">
+        <v>22076</v>
+      </c>
+      <c r="F45">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>1334</v>
+      </c>
+      <c r="D46">
+        <v>1334</v>
+      </c>
+      <c r="E46">
+        <v>1143</v>
+      </c>
+      <c r="F46">
+        <v>30250</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>59</v>
+      </c>
+      <c r="D47">
+        <v>59</v>
+      </c>
+      <c r="E47">
+        <v>59</v>
+      </c>
+      <c r="F47">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>232</v>
+      </c>
+      <c r="D48">
+        <v>232</v>
+      </c>
+      <c r="E48">
+        <v>232</v>
+      </c>
+      <c r="F48">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>540</v>
+      </c>
+      <c r="D49">
+        <v>540</v>
+      </c>
+      <c r="E49">
+        <v>540</v>
+      </c>
+      <c r="F49">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>33824</v>
+      </c>
+      <c r="D50">
+        <v>33824</v>
+      </c>
+      <c r="E50">
+        <v>2654</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>104</v>
+      </c>
+      <c r="D51">
+        <v>104</v>
+      </c>
+      <c r="E51">
+        <v>85</v>
+      </c>
+      <c r="F51">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>1279</v>
+      </c>
+      <c r="D52">
+        <v>1279</v>
+      </c>
+      <c r="E52">
+        <v>1279</v>
+      </c>
+      <c r="F52">
+        <v>3737</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>10806</v>
+      </c>
+      <c r="D53">
+        <v>10806</v>
+      </c>
+      <c r="E53">
+        <v>2678</v>
+      </c>
+      <c r="F53">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>13356</v>
+      </c>
+      <c r="D54">
+        <v>13356</v>
+      </c>
+      <c r="E54">
+        <v>2925</v>
+      </c>
+      <c r="F54">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>21152</v>
+      </c>
+      <c r="D55">
+        <v>21152</v>
+      </c>
+      <c r="E55">
+        <v>2910</v>
+      </c>
+      <c r="F55">
+        <v>3616</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>315</v>
+      </c>
+      <c r="D56">
+        <v>315</v>
+      </c>
+      <c r="E56">
+        <v>217</v>
+      </c>
+      <c r="F56">
+        <v>3935</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>20490</v>
+      </c>
+      <c r="D57">
+        <v>20490</v>
+      </c>
+      <c r="E57">
+        <v>2093</v>
+      </c>
+      <c r="F57">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>1143</v>
+      </c>
+      <c r="D58">
+        <v>1143</v>
+      </c>
+      <c r="E58">
+        <v>1406</v>
+      </c>
+      <c r="F58">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>59</v>
+      </c>
+      <c r="D59">
+        <v>59</v>
+      </c>
+      <c r="E59">
+        <v>59</v>
+      </c>
+      <c r="F59">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>232</v>
+      </c>
+      <c r="D60">
+        <v>232</v>
+      </c>
+      <c r="E60">
+        <v>232</v>
+      </c>
+      <c r="F60">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>540</v>
+      </c>
+      <c r="D61">
+        <v>540</v>
+      </c>
+      <c r="E61">
+        <v>540</v>
+      </c>
+      <c r="F61">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>443</v>
+      </c>
+      <c r="D62">
+        <v>41032</v>
+      </c>
+      <c r="E62">
+        <v>82200</v>
+      </c>
+      <c r="F62">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>109</v>
+      </c>
+      <c r="E63">
+        <v>138</v>
+      </c>
+      <c r="F63">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>1279</v>
+      </c>
+      <c r="E64">
+        <v>1279</v>
+      </c>
+      <c r="F64">
+        <v>56658</v>
+      </c>
+    </row>
+    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>9340</v>
+      </c>
+      <c r="E65">
+        <v>9963</v>
+      </c>
+      <c r="F65">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>12623</v>
+      </c>
+      <c r="E66">
+        <v>17464</v>
+      </c>
+      <c r="F66">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>25030</v>
+      </c>
+      <c r="E67">
+        <v>48750</v>
+      </c>
+      <c r="F67">
+        <v>8289</v>
+      </c>
+    </row>
+    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>379</v>
+      </c>
+      <c r="E68">
+        <v>437</v>
+      </c>
+      <c r="F68">
+        <v>13460</v>
+      </c>
+    </row>
+    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>24488</v>
+      </c>
+      <c r="E69">
+        <v>48361</v>
+      </c>
+      <c r="F69">
+        <v>33954</v>
+      </c>
+    </row>
+    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>1143</v>
+      </c>
+      <c r="E70">
+        <v>1143</v>
+      </c>
+      <c r="F70">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>59</v>
+      </c>
+      <c r="E71">
+        <v>59</v>
+      </c>
+      <c r="F71">
+        <v>33501</v>
+      </c>
+    </row>
+    <row r="72" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>232</v>
+      </c>
+      <c r="E72">
+        <v>232</v>
+      </c>
+      <c r="F72">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="73" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>540</v>
+      </c>
+      <c r="E73">
+        <v>540</v>
+      </c>
+      <c r="F73">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="74" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>3826</v>
+      </c>
+      <c r="E74">
+        <v>3982</v>
+      </c>
+      <c r="F74">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="75" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>86</v>
+      </c>
+      <c r="E75">
+        <v>86</v>
+      </c>
+      <c r="F75">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="76" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>1279</v>
+      </c>
+      <c r="E76">
+        <v>1279</v>
+      </c>
+      <c r="F76">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="77" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>3771</v>
+      </c>
+      <c r="E77">
+        <v>4006</v>
+      </c>
+      <c r="F77">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>4119</v>
+      </c>
+      <c r="E78">
+        <v>4395</v>
+      </c>
+      <c r="F78">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="79" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <v>3512</v>
+      </c>
+      <c r="E79">
+        <v>3681</v>
+      </c>
+      <c r="F79">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="80" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <v>217</v>
+      </c>
+      <c r="E80">
+        <v>221</v>
+      </c>
+      <c r="F80">
+        <v>3753</v>
+      </c>
+    </row>
+    <row r="81" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <v>2743</v>
+      </c>
+      <c r="E81">
+        <v>2909</v>
+      </c>
+      <c r="F81">
+        <v>3332</v>
+      </c>
+    </row>
+    <row r="82" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <v>1518</v>
+      </c>
+      <c r="E82">
+        <v>1542</v>
+      </c>
+      <c r="F82">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="83" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <v>59</v>
+      </c>
+      <c r="E83">
+        <v>59</v>
+      </c>
+      <c r="F83">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="84" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <v>232</v>
+      </c>
+      <c r="E84">
+        <v>232</v>
+      </c>
+      <c r="F84">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="85" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <v>540</v>
+      </c>
+      <c r="E85">
+        <v>540</v>
+      </c>
+      <c r="F85">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="86" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <v>39415</v>
+      </c>
+      <c r="E86">
+        <v>52094</v>
+      </c>
+      <c r="F86">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="87" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <v>111</v>
+      </c>
+      <c r="E87">
+        <v>119</v>
+      </c>
+      <c r="F87">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="88" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D88">
+        <v>1279</v>
+      </c>
+      <c r="E88">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="89" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D89">
+        <v>7464</v>
+      </c>
+      <c r="E89">
+        <v>12482</v>
+      </c>
+    </row>
+    <row r="90" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <v>10745</v>
+      </c>
+      <c r="E90">
+        <v>17036</v>
+      </c>
+    </row>
+    <row r="91" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D91">
+        <v>24049</v>
+      </c>
+      <c r="E91">
+        <v>31511</v>
+      </c>
+    </row>
+    <row r="92" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D92">
+        <v>323</v>
+      </c>
+      <c r="E92">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="93" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D93">
+        <v>23521</v>
+      </c>
+      <c r="E93">
+        <v>30920</v>
+      </c>
+    </row>
+    <row r="94" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D94">
+        <v>1143</v>
+      </c>
+      <c r="E94">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="95" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D95">
+        <v>59</v>
+      </c>
+      <c r="E95">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="96" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <v>232</v>
+      </c>
+      <c r="E96">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="97" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <v>540</v>
+      </c>
+      <c r="E97">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="98" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <v>2619</v>
+      </c>
+      <c r="E98">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="99" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="100" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="101" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="102" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="103" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D103">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="104" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="105" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D105">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="106" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="107" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D107">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="108" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="109" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D109">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="110" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <v>50571</v>
+      </c>
+    </row>
+    <row r="111" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D111">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="112" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D112">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D113">
+        <v>10846</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D114">
+        <v>15245</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D115">
+        <v>30588</v>
+      </c>
+    </row>
+    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D116">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D117">
+        <v>30039</v>
+      </c>
+    </row>
+    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D118">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D119">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D120">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D121">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D122">
+        <v>748</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15CEBB18-0089-4079-982B-AFB8D4550544}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
-        <v>5075</v>
-      </c>
-      <c r="C1">
-        <f>ROUNDUP(B1/1024,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>10012</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C6" si="0">ROUNDUP(B2/1024,0)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B3">
-        <v>14949</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.371</v>
+      </c>
+      <c r="D3">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4</v>
+        <v>960</v>
       </c>
       <c r="B4">
-        <v>19886</v>
+        <v>725</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29.9</v>
+      </c>
+      <c r="D4">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>24823</v>
+        <v>1920</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1410</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45.686</v>
+      </c>
+      <c r="D5">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>29760</v>
+        <v>3840</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2830</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>57.808</v>
+      </c>
+      <c r="D6">
+        <v>1289.117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1000000</v>
-      </c>
-      <c r="C7" t="s">
-        <v>0</v>
+        <v>7680</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5660</v>
+      </c>
+      <c r="C7">
+        <v>130.30099999999999</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2576.6370000000002</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>